--- a/PTP_Away_and_Close/Standard_Deviation and Max.xlsx
+++ b/PTP_Away_and_Close/Standard_Deviation and Max.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,13 +446,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005919320605711684</v>
+        <v>0.005919320605711683</v>
       </c>
       <c r="C3" t="n">
         <v>0.01227415759132908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002308127800351072</v>
+        <v>0.00230812780035107</v>
       </c>
     </row>
     <row r="4">
@@ -469,6 +469,22 @@
       </c>
       <c r="D4" t="n">
         <v>0.01001221230847593</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02163277678097587</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03037585875043268</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.008962291747283109</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,13 +530,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0008664405025898195</v>
+        <v>0.000866440502589821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007782440124296145</v>
+        <v>0.0007782440124301294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002557486753002336</v>
+        <v>0.002557486753002339</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +549,26 @@
         <v>0.003714871276933041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002422317488013803</v>
+        <v>0.002422317488014691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01084712176318825</v>
+        <v>0.01084712176318814</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.003158025703890132</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0009597966896873986</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.009795810698152472</v>
       </c>
     </row>
   </sheetData>
